--- a/output/reports/Q3-2023_quarterly_summary.xlsx
+++ b/output/reports/Q3-2023_quarterly_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>القيمة</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
         </is>
       </c>
     </row>
@@ -463,16 +453,6 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quarter</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Q3-2023</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>Q3-2023</t>
         </is>
       </c>
@@ -483,16 +463,8 @@
           <t>عدد الفواتير الإجمالي</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Total Invoices</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>553</v>
-      </c>
-      <c r="D3" t="n">
-        <v>553</v>
+      <c r="B3" t="n">
+        <v>630</v>
       </c>
     </row>
     <row r="4">
@@ -501,15 +473,7 @@
           <t>فواتير ضريبية</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Tax Invoices</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -519,23 +483,13 @@
           <t>فواتير مبسطة</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Simplified Invoices</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>553</v>
-      </c>
-      <c r="D5" t="n">
-        <v>553</v>
+      <c r="B5" t="n">
+        <v>630</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -545,16 +499,6 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Target Sales (Before VAT)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>341,130.43</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>341,130.43</t>
         </is>
       </c>
@@ -567,16 +511,6 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Actual Sales (Before VAT)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>341,130.43</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>341,130.43</t>
         </is>
       </c>
@@ -588,16 +522,6 @@
         </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
@@ -606,8 +530,6 @@
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -617,16 +539,6 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Target VAT</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>51,169.56</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>51,169.56</t>
         </is>
       </c>
@@ -639,17 +551,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Actual VAT</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>51,169.58</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>51,169.58</t>
+          <t>51,169.63</t>
         </is>
       </c>
     </row>
@@ -661,25 +563,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -689,16 +579,6 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Target Total (With VAT)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>392,299.99</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>392,299.99</t>
         </is>
       </c>
@@ -711,17 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Actual Total (With VAT)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>392,300.01</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>392,300.01</t>
+          <t>392,300.06</t>
         </is>
       </c>
     </row>
@@ -733,17 +603,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
     </row>
